--- a/Pedro/Pasta1- Aula 05.xlsx
+++ b/Pedro/Pasta1- Aula 05.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="BDSOMA" sheetId="1" r:id="rId1"/>
@@ -192,20 +192,12 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -221,11 +213,19 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,7 +566,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="5">
-        <f>E2*F2</f>
+        <f t="shared" ref="G2:G9" si="0">E2*F2</f>
         <v>250</v>
       </c>
     </row>
@@ -590,7 +590,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="5">
-        <f>E3*F3</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
     </row>
@@ -614,7 +614,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="5">
-        <f>E4*F4</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
     </row>
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="5">
-        <f>E5*F5</f>
+        <f t="shared" si="0"/>
         <v>450</v>
       </c>
     </row>
@@ -663,7 +663,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="5">
-        <f>E6*F6</f>
+        <f t="shared" si="0"/>
         <v>6900</v>
       </c>
     </row>
@@ -687,7 +687,7 @@
         <v>9</v>
       </c>
       <c r="G7" s="5">
-        <f>E7*F7</f>
+        <f t="shared" si="0"/>
         <v>2250</v>
       </c>
     </row>
@@ -711,7 +711,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="5">
-        <f>E8*F8</f>
+        <f t="shared" si="0"/>
         <v>1050</v>
       </c>
     </row>
@@ -733,7 +733,7 @@
         <v>9</v>
       </c>
       <c r="G9" s="5">
-        <f>E9*F9</f>
+        <f t="shared" si="0"/>
         <v>2250</v>
       </c>
     </row>
@@ -824,17 +824,17 @@
     </row>
   </sheetData>
   <sortState ref="A2:G9">
-    <sortCondition sortBy="cellColor" ref="G2:G9" dxfId="0"/>
+    <sortCondition sortBy="cellColor" ref="G2:G9" dxfId="3"/>
   </sortState>
   <conditionalFormatting sqref="G2:G9">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>2000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
       <formula>1000</formula>
       <formula>1999.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -854,7 +854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -867,7 +867,7 @@
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2">
         <f ca="1">RAND()</f>
-        <v>0.10959886167242283</v>
+        <v>5.3138694119358121E-2</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -876,7 +876,7 @@
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3">
         <f ca="1">RAND()*(100-1)+1</f>
-        <v>18.691522622667545</v>
+        <v>38.04585075085572</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -885,7 +885,7 @@
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
